--- a/biology/Zoologie/Épine/Épine.xlsx
+++ b/biology/Zoologie/Épine/Épine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pine</t>
+          <t>Épine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En botanique, une épine est un piquant issu de la métamorphose d'organes végétatifs, tels que les racines, la tige, les stipules, et le plus souvent les feuilles modifiées (cataphylles) qui n'ont pas de rôle photosynthétique mais sont spécialisées dans la défense des plantes contre les herbivores. En forme d'excroissance pointue et dure faisant corps avec le bois de la tige, des rameaux ou autres organes (dits épineux), l'épine ne peut être détachée sans déchirure des fibres[1]. On trouve les épines sur de nombreux arbres (aubépine, févier d'Amérique) et arbustes des régions arides (Ocotillo).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En botanique, une épine est un piquant issu de la métamorphose d'organes végétatifs, tels que les racines, la tige, les stipules, et le plus souvent les feuilles modifiées (cataphylles) qui n'ont pas de rôle photosynthétique mais sont spécialisées dans la défense des plantes contre les herbivores. En forme d'excroissance pointue et dure faisant corps avec le bois de la tige, des rameaux ou autres organes (dits épineux), l'épine ne peut être détachée sans déchirure des fibres. On trouve les épines sur de nombreux arbres (aubépine, févier d'Amérique) et arbustes des régions arides (Ocotillo).
 Les feuilles persistantes en aiguille rencontrées chez de nombreuses espèces de Conifères sont appelées improprement épines, leur dénomination botanique étant l'aiguillon qui désigne spécifiquement une feuille allongée, étroite et pointue (dite aciculée).
 Lorsque cet organe est absent d'une plante, celle-ci est qualifiée d'inerme.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pine</t>
+          <t>Épine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les épines sont présentes sur de nombreux végétaux et servent d'organe de protection contre les herbivores.
 Les épines des cactus et des ajoncs sont des feuilles modifiées. Leur adaptation au milieu aride est remarquable. Leur structure interne est partiellement creuse. Ainsi, les épines de cactus peuvent être à la fois rigides et légères. Le vide contenu dans les épines permet d'une part de protéger la plante contre la chaleur car les rayons du soleil ne chauffent pas les épines autant qu'ils le feraient pour une structure homogène et d'autre part de faire pénétrer l'eau de pluie ou de condensation limitant ainsi les pertes hydriques. Enfin, la surface réduite limite les pertes d'eau par évapotranspiration.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pine</t>
+          <t>Épine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Épines ou aiguillons ?</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue les épines des aiguillons en fonction de l'organe qui leur a donné naissance par adaptation. L'épine fait corps avec la plante et, sur les arbres, naît du corps ligneux ; l'aiguillon naît de l'épiderme et se détache, par simple pression du doigt, sans « blesser » la plante.
 Racines épines
@@ -559,7 +575,7 @@
 Pétioles épines
 endurcissement du pétiole d'une feuille ou foliole le plus souvent en fin de vie (exemple : Astragalus tragacantha).
 Aiguillon
-un aiguillon est un piquant en général moins développé que l'épine. Excroissance dure et acérée, elle est caractérisée par son origine épidermique (épiderme, parenchyme cortical), non vascularisée, si bien qu'il peut se détacher sans que l’écorce de la tige ou du rameau qui la porte soit endommagée. Ex : aiguillon des ronces (Rubus), Rosiers (Rosa)[2]. Utilisé aussi par extension, l'aiguillon peut désigner les petites pointes que portent certains organes tels que les fruits, comme ceux de la bogue épineuse du châtaignier.
+un aiguillon est un piquant en général moins développé que l'épine. Excroissance dure et acérée, elle est caractérisée par son origine épidermique (épiderme, parenchyme cortical), non vascularisée, si bien qu'il peut se détacher sans que l’écorce de la tige ou du rameau qui la porte soit endommagée. Ex : aiguillon des ronces (Rubus), Rosiers (Rosa). Utilisé aussi par extension, l'aiguillon peut désigner les petites pointes que portent certains organes tels que les fruits, comme ceux de la bogue épineuse du châtaignier.
 </t>
         </is>
       </c>
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pine</t>
+          <t>Épine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Chez les animaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les animaux, on parlera plus volontiers de « piquant » que d'« épine ». Un piquant isolé sera souvent plutôt appelé « aiguillon » (comme chez les raies de la famille des Dasyatidae), ou « dard » quand il est situé au bout de l'abdomen, notamment chez les insectes.
 Les hérissons et les porcs-épics sont dotés de piquants faits de poils agglomérés (kératine), durs et pointus.
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89pine</t>
+          <t>Épine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,7 +646,9 @@
           <t>Hygiène</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épine en fonction de sa longueur peut occasionner l'introduction d'éléments pathogènes derrière les barrières de protection du derme. La désinfection et la surveillance de ces blessures apparemment bénignes sont donc nécessaires, mais seules les vaccinations notamment contre le tétanos évitent de prendre des risques véritablement mortels surtout si de la terre peut avoir été en contact avec l'épine notamment au niveau de la peau elle-même.
 </t>
